--- a/model_templates/ark.SpatialImagingFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.SpatialImagingFileAnnotationTemplate.xlsx
@@ -42636,14 +42636,14 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$E1 = "multispecimen"</formula>
+      <formula>$E1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$E1 = "single specimen"</formula>
+      <formula>$E1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1000">
